--- a/Simulation_code/Service_Rates.xlsx
+++ b/Simulation_code/Service_Rates.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\Simulation_code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810B797-9951-4753-95AC-77F96FD7BD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Arrival_rates" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Arrival_rates" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>High_Complex</t>
   </si>
@@ -49,9 +58,6 @@
     <t>29.8</t>
   </si>
   <si>
-    <t>Χ</t>
-  </si>
-  <si>
     <t>Hospital_Care</t>
   </si>
   <si>
@@ -60,32 +66,22 @@
   <si>
     <t>Death</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -232,42 +228,42 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -278,27 +274,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -500,7 +554,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -519,7 +573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -549,7 +603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -575,7 +629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -601,7 +655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -627,7 +681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -653,7 +707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -679,7 +733,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -705,7 +759,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,7 +785,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,7 +811,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,9 +824,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -789,7 +849,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -808,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,9 +1115,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1071,7 +1137,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1090,7 +1156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1276,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,155 +1407,165 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>11</v>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>14</v>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Simulation_code/Service_Rates.xlsx
+++ b/Simulation_code/Service_Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\Simulation_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810B797-9951-4753-95AC-77F96FD7BD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414382E1-7F5D-4167-A0DA-1C9B2EB5203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13410" yWindow="2550" windowWidth="10290" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Arrival_rates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>High_Complex</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1441,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1472,10 +1481,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1489,10 +1498,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1506,10 +1515,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1523,10 +1532,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1540,10 +1549,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1560,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Simulation_code/Service_Rates.xlsx
+++ b/Simulation_code/Service_Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\Simulation_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414382E1-7F5D-4167-A0DA-1C9B2EB5203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D13A6A2-FB37-4ACB-8FF5-19784E913915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13410" yWindow="2550" windowWidth="10290" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="1830" windowWidth="10290" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Arrival_rates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>High_Complex</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1450,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1484,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1498,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
@@ -1518,7 +1527,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1535,7 +1544,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1552,7 +1561,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1566,10 +1575,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
